--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ptn-Sdc3.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H2">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I2">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J2">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N2">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O2">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P2">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q2">
-        <v>6.349844838965</v>
+        <v>3.239580833383889</v>
       </c>
       <c r="R2">
-        <v>57.148603550685</v>
+        <v>29.156227500455</v>
       </c>
       <c r="S2">
-        <v>0.000661282445588975</v>
+        <v>0.000244605760805387</v>
       </c>
       <c r="T2">
-        <v>0.0006983577982826422</v>
+        <v>0.0002539157244326806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H3">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I3">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J3">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O3">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P3">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q3">
-        <v>6.623547559679999</v>
+        <v>3.564791689301333</v>
       </c>
       <c r="R3">
-        <v>59.61192803711999</v>
+        <v>32.083125203712</v>
       </c>
       <c r="S3">
-        <v>0.0006897862608961019</v>
+        <v>0.0002691609279474167</v>
       </c>
       <c r="T3">
-        <v>0.0007284597038047386</v>
+        <v>0.0002794054881770213</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H4">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I4">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J4">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N4">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O4">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P4">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q4">
-        <v>15.388506696625</v>
+        <v>13.38993181087833</v>
       </c>
       <c r="R4">
-        <v>138.496560269625</v>
+        <v>120.509386297905</v>
       </c>
       <c r="S4">
-        <v>0.001602582362306222</v>
+        <v>0.00101101180250872</v>
       </c>
       <c r="T4">
-        <v>0.001692432481116247</v>
+        <v>0.001049492020951365</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H5">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I5">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J5">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N5">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O5">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P5">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q5">
-        <v>1.36424005119</v>
+        <v>0.7488251326398333</v>
       </c>
       <c r="R5">
-        <v>8.18544030714</v>
+        <v>4.492950795839</v>
       </c>
       <c r="S5">
-        <v>0.0001420740223265673</v>
+        <v>5.654032132553243E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001000263473769477</v>
+        <v>3.912820532587917E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.229395</v>
+        <v>0.1234603333333333</v>
       </c>
       <c r="H6">
-        <v>0.6881849999999999</v>
+        <v>0.370381</v>
       </c>
       <c r="I6">
-        <v>0.004530516537937373</v>
+        <v>0.002558470358543426</v>
       </c>
       <c r="J6">
-        <v>0.004734510558374422</v>
+        <v>0.002636284444771545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N6">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O6">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P6">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q6">
-        <v>13.77732483956</v>
+        <v>12.94148350868267</v>
       </c>
       <c r="R6">
-        <v>123.99592355604</v>
+        <v>116.473351578144</v>
       </c>
       <c r="S6">
-        <v>0.001434791446819507</v>
+        <v>0.0009771515459563698</v>
       </c>
       <c r="T6">
-        <v>0.001515234227793847</v>
+        <v>0.001014343005884599</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>131.577157</v>
       </c>
       <c r="I7">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J7">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N7">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O7">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P7">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q7">
-        <v>1214.055132416629</v>
+        <v>1150.855027467237</v>
       </c>
       <c r="R7">
-        <v>10926.49619174966</v>
+        <v>10357.69524720513</v>
       </c>
       <c r="S7">
-        <v>0.1264335377327383</v>
+        <v>0.0868957386923056</v>
       </c>
       <c r="T7">
-        <v>0.1335221396380473</v>
+        <v>0.09020308584524461</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>131.577157</v>
       </c>
       <c r="I8">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J8">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O8">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P8">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q8">
         <v>1266.385575327829</v>
@@ -948,10 +948,10 @@
         <v>11397.47017795046</v>
       </c>
       <c r="S8">
-        <v>0.1318833092066368</v>
+        <v>0.09561891585908278</v>
       </c>
       <c r="T8">
-        <v>0.139277457101927</v>
+        <v>0.0992582767056884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>131.577157</v>
       </c>
       <c r="I9">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J9">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N9">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O9">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P9">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q9">
-        <v>2942.197173169102</v>
+        <v>4756.748213594197</v>
       </c>
       <c r="R9">
-        <v>26479.77455852192</v>
+        <v>42810.73392234778</v>
       </c>
       <c r="S9">
-        <v>0.3064048636494498</v>
+        <v>0.3591600505089161</v>
       </c>
       <c r="T9">
-        <v>0.3235837082757282</v>
+        <v>0.372830076086422</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>131.577157</v>
       </c>
       <c r="I10">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J10">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N10">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O10">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P10">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q10">
-        <v>260.835135030718</v>
+        <v>266.0187267783638</v>
       </c>
       <c r="R10">
-        <v>1565.010810184308</v>
+        <v>1596.112360670183</v>
       </c>
       <c r="S10">
-        <v>0.02716376547190691</v>
+        <v>0.0200858433231727</v>
       </c>
       <c r="T10">
-        <v>0.01912448311566394</v>
+        <v>0.01390022170492396</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>131.577157</v>
       </c>
       <c r="I11">
-        <v>0.8662096468293877</v>
+        <v>0.9088918061291337</v>
       </c>
       <c r="J11">
-        <v>0.9052121726823298</v>
+        <v>0.9365351146153917</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N11">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O11">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P11">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q11">
-        <v>2634.148133793654</v>
+        <v>4597.437793609419</v>
       </c>
       <c r="R11">
-        <v>23707.33320414289</v>
+        <v>41376.94014248477</v>
       </c>
       <c r="S11">
-        <v>0.2743241707686558</v>
+        <v>0.3471312577456565</v>
       </c>
       <c r="T11">
-        <v>0.2897043845509635</v>
+        <v>0.3603434542731128</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H12">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I12">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J12">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>27.68083366666667</v>
+        <v>26.23985166666667</v>
       </c>
       <c r="N12">
-        <v>83.042501</v>
+        <v>78.719555</v>
       </c>
       <c r="O12">
-        <v>0.1459618213622149</v>
+        <v>0.09560625159817936</v>
       </c>
       <c r="P12">
-        <v>0.1475036943464798</v>
+        <v>0.09631575414263932</v>
       </c>
       <c r="Q12">
-        <v>181.1669595849507</v>
+        <v>112.1232404096642</v>
       </c>
       <c r="R12">
-        <v>1087.001757509704</v>
+        <v>672.7394424579851</v>
       </c>
       <c r="S12">
-        <v>0.0188670011838876</v>
+        <v>0.00846590714506837</v>
       </c>
       <c r="T12">
-        <v>0.01328319691014988</v>
+        <v>0.005858752572962024</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H13">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I13">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J13">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>86.62195199999999</v>
       </c>
       <c r="O13">
-        <v>0.1522533369252734</v>
+        <v>0.1052038484825964</v>
       </c>
       <c r="P13">
-        <v>0.1538616705619625</v>
+        <v>0.1059845756519775</v>
       </c>
       <c r="Q13">
-        <v>188.975951930368</v>
+        <v>123.378923430784</v>
       </c>
       <c r="R13">
-        <v>1133.855711582208</v>
+        <v>740.2735405847039</v>
       </c>
       <c r="S13">
-        <v>0.01968024145774047</v>
+        <v>0.009315771695566232</v>
       </c>
       <c r="T13">
-        <v>0.01385575375623082</v>
+        <v>0.006446893458112065</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H14">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I14">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J14">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>67.08300833333332</v>
+        <v>108.455335</v>
       </c>
       <c r="N14">
-        <v>201.249025</v>
+        <v>325.366005</v>
       </c>
       <c r="O14">
-        <v>0.3537306064080358</v>
+        <v>0.3951626014085634</v>
       </c>
       <c r="P14">
-        <v>0.3574672524750558</v>
+        <v>0.3980951384183098</v>
       </c>
       <c r="Q14">
-        <v>439.0483612564333</v>
+        <v>463.4311106020225</v>
       </c>
       <c r="R14">
-        <v>2634.2901675386</v>
+        <v>2780.586663612135</v>
       </c>
       <c r="S14">
-        <v>0.04572316039627979</v>
+        <v>0.03499153909713858</v>
       </c>
       <c r="T14">
-        <v>0.03219111171821133</v>
+        <v>0.02421557031093639</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H15">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I15">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J15">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.947122</v>
+        <v>6.0653095</v>
       </c>
       <c r="N15">
-        <v>11.894244</v>
+        <v>12.130619</v>
       </c>
       <c r="O15">
-        <v>0.03135934305434629</v>
+        <v>0.02209926768810472</v>
       </c>
       <c r="P15">
-        <v>0.02112707240667585</v>
+        <v>0.01484217888683478</v>
       </c>
       <c r="Q15">
-        <v>38.923033315944</v>
+        <v>25.91714937517825</v>
       </c>
       <c r="R15">
-        <v>155.692133263776</v>
+        <v>103.668597500713</v>
       </c>
       <c r="S15">
-        <v>0.004053503560112815</v>
+        <v>0.001956884043606486</v>
       </c>
       <c r="T15">
-        <v>0.001902562943634956</v>
+        <v>0.0009028289765849414</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.544852000000001</v>
+        <v>4.2730135</v>
       </c>
       <c r="H16">
-        <v>13.089704</v>
+        <v>8.546027</v>
       </c>
       <c r="I16">
-        <v>0.1292598366326751</v>
+        <v>0.08854972351232299</v>
       </c>
       <c r="J16">
-        <v>0.09005331675929572</v>
+        <v>0.06082860093983664</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.05939466666666</v>
+        <v>104.823008</v>
       </c>
       <c r="N16">
-        <v>180.178184</v>
+        <v>314.469024</v>
       </c>
       <c r="O16">
-        <v>0.3166948922501296</v>
+        <v>0.3819280308225561</v>
       </c>
       <c r="P16">
-        <v>0.3200403102098262</v>
+        <v>0.3847623529002386</v>
       </c>
       <c r="Q16">
-        <v>393.0798493029227</v>
+        <v>447.9101282946081</v>
       </c>
       <c r="R16">
-        <v>2358.479095817536</v>
+        <v>2687.460769767648</v>
       </c>
       <c r="S16">
-        <v>0.04093593003465439</v>
+        <v>0.03381962153094332</v>
       </c>
       <c r="T16">
-        <v>0.02882069143106874</v>
+        <v>0.02340455562124121</v>
       </c>
     </row>
   </sheetData>
